--- a/db/mysql/水平分表性能测试.xlsx
+++ b/db/mysql/水平分表性能测试.xlsx
@@ -9,14 +9,15 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="测试环境配置" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="测试数据报表" sheetId="3" r:id="rId3"/>
+    <sheet name="中间件对比" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38">
   <si>
     <t>测试类型</t>
   </si>
@@ -51,7 +52,7 @@
     <t>`</t>
   </si>
   <si>
-    <t>数据库</t>
+    <t>计算机</t>
   </si>
   <si>
     <t>硬件配置</t>
@@ -60,7 +61,7 @@
     <t>软件配置</t>
   </si>
   <si>
-    <t>DB0</t>
+    <t>DEMO</t>
   </si>
   <si>
     <t>OS：CentOS 6.6 64bit
@@ -73,16 +74,71 @@
     <t>MySQL 5.7.13</t>
   </si>
   <si>
-    <t>中间件</t>
+    <t>MAC OS</t>
+  </si>
+  <si>
+    <t>OS：MAC OS m1
+处理器：8核
+内存：16G
+存储：250G
+网卡：1000mbps</t>
+  </si>
+  <si>
+    <t>分片工具</t>
+  </si>
+  <si>
+    <t>坑</t>
+  </si>
+  <si>
+    <t>完成</t>
+  </si>
+  <si>
+    <t>并发数量 (user/min)</t>
+  </si>
+  <si>
+    <t>avg response(ms)</t>
+  </si>
+  <si>
+    <t>requests/s</t>
   </si>
   <si>
     <t>JDBC</t>
   </si>
   <si>
+    <t>100user/10min</t>
+  </si>
+  <si>
+    <t>68 ms</t>
+  </si>
+  <si>
     <t>Sharding-JDBC</t>
   </si>
   <si>
     <t>极限测试</t>
+  </si>
+  <si>
+    <t>1库2表新增</t>
+  </si>
+  <si>
+    <t>1库2表更新</t>
+  </si>
+  <si>
+    <t>1库2表查询</t>
+  </si>
+  <si>
+    <t>2库2表新增</t>
+  </si>
+  <si>
+    <t>2库2表更新</t>
+  </si>
+  <si>
+    <t>2库2表查询</t>
+  </si>
+  <si>
+    <t>vitess</t>
+  </si>
+  <si>
+    <t>sharding-jdbc</t>
   </si>
 </sst>
 </file>
@@ -90,10 +146,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -119,24 +175,33 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -148,6 +213,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="Calibri"/>
@@ -155,11 +235,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -171,6 +259,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -180,76 +283,29 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -276,19 +332,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -300,25 +488,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -330,127 +500,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -479,6 +535,39 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -490,24 +579,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -529,26 +600,20 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -567,156 +632,147 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -726,12 +782,18 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1058,7 +1120,7 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView zoomScale="169" zoomScaleNormal="169" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:F4"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="5"/>
@@ -1119,13 +1181,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="2" outlineLevelCol="2"/>
   <cols>
     <col min="2" max="2" width="22.390625" customWidth="1"/>
     <col min="3" max="3" width="22.0078125" customWidth="1"/>
@@ -1146,11 +1208,19 @@
       <c r="A2" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="4" t="s">
         <v>16</v>
+      </c>
+    </row>
+    <row r="3" ht="84" spans="1:2">
+      <c r="A3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -1162,25 +1232,27 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="178" zoomScaleNormal="178" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="7" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="2" width="17.84375" customWidth="1"/>
-    <col min="3" max="4" width="11.9921875" customWidth="1"/>
-    <col min="5" max="5" width="14.3359375" customWidth="1"/>
-    <col min="6" max="6" width="13.3828125" customWidth="1"/>
-    <col min="7" max="9" width="18.484375" customWidth="1"/>
-    <col min="10" max="10" width="17.578125" customWidth="1"/>
+    <col min="3" max="5" width="11.9921875" customWidth="1"/>
+    <col min="6" max="6" width="15.875" customWidth="1"/>
+    <col min="7" max="7" width="11.9921875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="15.140625" customWidth="1"/>
+    <col min="9" max="9" width="13.3828125" style="1" customWidth="1"/>
+    <col min="10" max="12" width="18.484375" customWidth="1"/>
+    <col min="13" max="13" width="17.578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" ht="11" customHeight="1" spans="1:9">
       <c r="A1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -1189,18 +1261,27 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="H1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" hidden="1" spans="1:3">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
@@ -1209,67 +1290,249 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+    <row r="3" hidden="1"/>
+    <row r="4" hidden="1"/>
+    <row r="5" hidden="1" spans="1:9">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B5" t="s">
         <v>6</v>
       </c>
       <c r="C5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5" s="1">
+        <v>46565</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I5" s="3">
+        <v>76.84</v>
+      </c>
+    </row>
+    <row r="6" hidden="1" spans="6:9">
+      <c r="F6" t="s">
+        <v>26</v>
+      </c>
+      <c r="H6" s="2"/>
+      <c r="I6" s="3"/>
+    </row>
+    <row r="7" hidden="1" spans="8:9">
+      <c r="H7" s="2"/>
+      <c r="I7" s="3"/>
+    </row>
+    <row r="8" hidden="1" spans="8:9">
+      <c r="H8" s="2"/>
+      <c r="I8" s="3"/>
+    </row>
+    <row r="9" hidden="1" spans="1:3">
+      <c r="A9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" hidden="1" spans="1:3">
+      <c r="A10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" t="s">
+    <row r="11" hidden="1" spans="1:3">
+      <c r="A11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" t="s">
         <v>6</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C11" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" t="s">
+    <row r="12" hidden="1" spans="1:3">
+      <c r="A12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" t="s">
         <v>6</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C12" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
-      <c r="A8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" t="s">
-        <v>20</v>
+    <row r="13" hidden="1"/>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>36</v>
+      </c>
+      <c r="B20" t="s">
+        <v>29</v>
+      </c>
+      <c r="C20" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
+        <v>36</v>
+      </c>
+      <c r="B21" t="s">
+        <v>29</v>
+      </c>
+      <c r="C21" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
+        <v>36</v>
+      </c>
+      <c r="B22" t="s">
+        <v>29</v>
+      </c>
+      <c r="C22" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
+        <v>36</v>
+      </c>
+      <c r="B23" t="s">
+        <v>29</v>
+      </c>
+      <c r="C23" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
+        <v>36</v>
+      </c>
+      <c r="B24" t="s">
+        <v>29</v>
+      </c>
+      <c r="C24" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
+        <v>36</v>
+      </c>
+      <c r="B25" t="s">
+        <v>29</v>
+      </c>
+      <c r="C25" t="s">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="B1:C1"/>
+  <sheetViews>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="2"/>
+  <cols>
+    <col min="2" max="2" width="16.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:3">
+      <c r="B1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/db/mysql/水平分表性能测试.xlsx
+++ b/db/mysql/水平分表性能测试.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28060" windowHeight="12160" activeTab="2"/>
+    <workbookView windowWidth="28060" windowHeight="11580" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39">
   <si>
     <t>测试类型</t>
   </si>
@@ -136,6 +136,9 @@
   </si>
   <si>
     <t>vitess</t>
+  </si>
+  <si>
+    <t>水平分表</t>
   </si>
   <si>
     <t>sharding-jdbc</t>
@@ -147,9 +150,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -167,8 +170,121 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -182,130 +298,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -326,187 +329,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -535,15 +538,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -559,15 +553,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -579,6 +564,15 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -601,19 +595,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -632,120 +615,140 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -754,28 +757,28 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1234,7 +1237,7 @@
   <sheetPr/>
   <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="178" zoomScaleNormal="178" workbookViewId="0">
+    <sheetView zoomScale="178" zoomScaleNormal="178" workbookViewId="0">
       <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
@@ -1516,22 +1519,25 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="B1:C1"/>
+  <dimension ref="B1:D1"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="3"/>
   <cols>
-    <col min="2" max="2" width="16.140625" customWidth="1"/>
+    <col min="3" max="3" width="16.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3">
+    <row r="1" spans="2:4">
       <c r="B1" t="s">
         <v>37</v>
       </c>
       <c r="C1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" t="s">
         <v>36</v>
       </c>
     </row>
